--- a/BalanceSheet/NET_bal.xlsx
+++ b/BalanceSheet/NET_bal.xlsx
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-2958000.0</v>
+        <v>14000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>315000.0</v>
+        <v>17000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>2826000.0</v>
+        <v>17000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1507000.0</v>
+        <v>14000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-334000.0</v>
+        <v>11000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>9517000.0</v>
